--- a/public/excel/UploadPerhitunganBonusMember.xlsx
+++ b/public/excel/UploadPerhitunganBonusMember.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YER\Documents\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\new-rwh\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,10 +37,10 @@
     <t>Tes</t>
   </si>
   <si>
-    <t>NO. KTP</t>
+    <t>No Rekening</t>
   </si>
   <si>
-    <t>No Rekening</t>
+    <t>NOID</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
